--- a/natmiOut/OldD4/LR-pairs_lrc2p/Agrn-Lrp4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Agrn-Lrp4.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.4070384101429</v>
+        <v>18.43868566666667</v>
       </c>
       <c r="H2">
-        <v>14.4070384101429</v>
+        <v>55.316057</v>
       </c>
       <c r="I2">
-        <v>0.2938113350798117</v>
+        <v>0.3183853266762842</v>
       </c>
       <c r="J2">
-        <v>0.2938113350798117</v>
+        <v>0.3483374670709626</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.461946881438581</v>
+        <v>0.4734346666666667</v>
       </c>
       <c r="N2">
-        <v>0.461946881438581</v>
+        <v>1.420304</v>
       </c>
       <c r="O2">
-        <v>0.05690716549296645</v>
+        <v>0.05284863793465887</v>
       </c>
       <c r="P2">
-        <v>0.05690716549296645</v>
+        <v>0.05971365108322604</v>
       </c>
       <c r="Q2">
-        <v>6.655286464331364</v>
+        <v>8.729513002369778</v>
       </c>
       <c r="R2">
-        <v>6.655286464331364</v>
+        <v>78.56561702132799</v>
       </c>
       <c r="S2">
-        <v>0.01671997026909627</v>
+        <v>0.01682623085322303</v>
       </c>
       <c r="T2">
-        <v>0.01671997026909627</v>
+        <v>0.0208005019678902</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.4070384101429</v>
+        <v>18.43868566666667</v>
       </c>
       <c r="H3">
-        <v>14.4070384101429</v>
+        <v>55.316057</v>
       </c>
       <c r="I3">
-        <v>0.2938113350798117</v>
+        <v>0.3183853266762842</v>
       </c>
       <c r="J3">
-        <v>0.2938113350798117</v>
+        <v>0.3483374670709626</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.65589118122037</v>
+        <v>1.866903</v>
       </c>
       <c r="N3">
-        <v>1.65589118122037</v>
+        <v>5.600709</v>
       </c>
       <c r="O3">
-        <v>0.2039889807126669</v>
+        <v>0.2083989358041556</v>
       </c>
       <c r="P3">
-        <v>0.2039889807126669</v>
+        <v>0.2354698593010256</v>
       </c>
       <c r="Q3">
-        <v>23.85648785085877</v>
+        <v>34.423237587157</v>
       </c>
       <c r="R3">
-        <v>23.85648785085877</v>
+        <v>309.809138284413</v>
       </c>
       <c r="S3">
-        <v>0.05993427476475861</v>
+        <v>0.06635116325499604</v>
       </c>
       <c r="T3">
-        <v>0.05993427476475861</v>
+        <v>0.08202297436047519</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.4070384101429</v>
+        <v>18.43868566666667</v>
       </c>
       <c r="H4">
-        <v>14.4070384101429</v>
+        <v>55.316057</v>
       </c>
       <c r="I4">
-        <v>0.2938113350798117</v>
+        <v>0.3183853266762842</v>
       </c>
       <c r="J4">
-        <v>0.2938113350798117</v>
+        <v>0.3483374670709626</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.41103374181041</v>
+        <v>1.794003</v>
       </c>
       <c r="N4">
-        <v>1.41103374181041</v>
+        <v>5.382009</v>
       </c>
       <c r="O4">
-        <v>0.1738250302963477</v>
+        <v>0.2002612433690784</v>
       </c>
       <c r="P4">
-        <v>0.1738250302963477</v>
+        <v>0.2262750844557097</v>
       </c>
       <c r="Q4">
-        <v>20.32881731627024</v>
+        <v>33.079057402057</v>
       </c>
       <c r="R4">
-        <v>20.32881731627024</v>
+        <v>297.711516618513</v>
       </c>
       <c r="S4">
-        <v>0.05107176422165865</v>
+        <v>0.06376024139066286</v>
       </c>
       <c r="T4">
-        <v>0.05107176422165865</v>
+        <v>0.07882008978057006</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.4070384101429</v>
+        <v>18.43868566666667</v>
       </c>
       <c r="H5">
-        <v>14.4070384101429</v>
+        <v>55.316057</v>
       </c>
       <c r="I5">
-        <v>0.2938113350798117</v>
+        <v>0.3183853266762842</v>
       </c>
       <c r="J5">
-        <v>0.2938113350798117</v>
+        <v>0.3483374670709626</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.58846838548901</v>
+        <v>1.734280333333333</v>
       </c>
       <c r="N5">
-        <v>1.58846838548901</v>
+        <v>5.202841</v>
       </c>
       <c r="O5">
-        <v>0.1956831768446239</v>
+        <v>0.1935945123301762</v>
       </c>
       <c r="P5">
-        <v>0.1956831768446239</v>
+        <v>0.2187423481983455</v>
       </c>
       <c r="Q5">
-        <v>22.88512504303785</v>
+        <v>31.97784992421523</v>
       </c>
       <c r="R5">
-        <v>22.88512504303785</v>
+        <v>287.800649317937</v>
       </c>
       <c r="S5">
-        <v>0.05749393544137783</v>
+        <v>0.06163765205097906</v>
       </c>
       <c r="T5">
-        <v>0.05749393544137783</v>
+        <v>0.0761961555125662</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.4070384101429</v>
+        <v>18.43868566666667</v>
       </c>
       <c r="H6">
-        <v>14.4070384101429</v>
+        <v>55.316057</v>
       </c>
       <c r="I6">
-        <v>0.2938113350798117</v>
+        <v>0.3183853266762842</v>
       </c>
       <c r="J6">
-        <v>0.2938113350798117</v>
+        <v>0.3483374670709626</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.00021192209817</v>
+        <v>3.0896925</v>
       </c>
       <c r="N6">
-        <v>3.00021192209817</v>
+        <v>6.179385</v>
       </c>
       <c r="O6">
-        <v>0.369595646653395</v>
+        <v>0.3448966705619311</v>
       </c>
       <c r="P6">
-        <v>0.369595646653395</v>
+        <v>0.2597990569616933</v>
       </c>
       <c r="Q6">
-        <v>43.22416840023699</v>
+        <v>56.9698688141575</v>
       </c>
       <c r="R6">
-        <v>43.22416840023699</v>
+        <v>341.819212884945</v>
       </c>
       <c r="S6">
-        <v>0.1085913903829203</v>
+        <v>0.1098100391264232</v>
       </c>
       <c r="T6">
-        <v>0.1085913903829203</v>
+        <v>0.09049774544946096</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.0494712063533</v>
+        <v>16.845061</v>
       </c>
       <c r="H7">
-        <v>15.0494712063533</v>
+        <v>50.535183</v>
       </c>
       <c r="I7">
-        <v>0.3069128506154923</v>
+        <v>0.2908678170626081</v>
       </c>
       <c r="J7">
-        <v>0.3069128506154923</v>
+        <v>0.3182312442151755</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.461946881438581</v>
+        <v>0.4734346666666667</v>
       </c>
       <c r="N7">
-        <v>0.461946881438581</v>
+        <v>1.420304</v>
       </c>
       <c r="O7">
-        <v>0.05690716549296645</v>
+        <v>0.05284863793465887</v>
       </c>
       <c r="P7">
-        <v>0.05690716549296645</v>
+        <v>0.05971365108322604</v>
       </c>
       <c r="Q7">
-        <v>6.952056291074626</v>
+        <v>7.975035839514668</v>
       </c>
       <c r="R7">
-        <v>6.952056291074626</v>
+        <v>71.775322555632</v>
       </c>
       <c r="S7">
-        <v>0.01746554038189391</v>
+        <v>0.01537196795078637</v>
       </c>
       <c r="T7">
-        <v>0.01746554038189391</v>
+        <v>0.01900274948084589</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.0494712063533</v>
+        <v>16.845061</v>
       </c>
       <c r="H8">
-        <v>15.0494712063533</v>
+        <v>50.535183</v>
       </c>
       <c r="I8">
-        <v>0.3069128506154923</v>
+        <v>0.2908678170626081</v>
       </c>
       <c r="J8">
-        <v>0.3069128506154923</v>
+        <v>0.3182312442151755</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.65589118122037</v>
+        <v>1.866903</v>
       </c>
       <c r="N8">
-        <v>1.65589118122037</v>
+        <v>5.600709</v>
       </c>
       <c r="O8">
-        <v>0.2039889807126669</v>
+        <v>0.2083989358041556</v>
       </c>
       <c r="P8">
-        <v>0.2039889807126669</v>
+        <v>0.2354698593010256</v>
       </c>
       <c r="Q8">
-        <v>24.92028665263031</v>
+        <v>31.448094916083</v>
       </c>
       <c r="R8">
-        <v>24.92028665263031</v>
+        <v>283.032854244747</v>
       </c>
       <c r="S8">
-        <v>0.06260683956467326</v>
+        <v>0.06061654353552533</v>
       </c>
       <c r="T8">
-        <v>0.06260683956467326</v>
+        <v>0.07493386630053769</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.0494712063533</v>
+        <v>16.845061</v>
       </c>
       <c r="H9">
-        <v>15.0494712063533</v>
+        <v>50.535183</v>
       </c>
       <c r="I9">
-        <v>0.3069128506154923</v>
+        <v>0.2908678170626081</v>
       </c>
       <c r="J9">
-        <v>0.3069128506154923</v>
+        <v>0.3182312442151755</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.41103374181041</v>
+        <v>1.794003</v>
       </c>
       <c r="N9">
-        <v>1.41103374181041</v>
+        <v>5.382009</v>
       </c>
       <c r="O9">
-        <v>0.1738250302963477</v>
+        <v>0.2002612433690784</v>
       </c>
       <c r="P9">
-        <v>0.1738250302963477</v>
+        <v>0.2262750844557097</v>
       </c>
       <c r="Q9">
-        <v>21.23531166856872</v>
+        <v>30.220089969183</v>
       </c>
       <c r="R9">
-        <v>21.23531166856872</v>
+        <v>271.980809722647</v>
       </c>
       <c r="S9">
-        <v>0.0533491355565764</v>
+        <v>0.05824955070100753</v>
       </c>
       <c r="T9">
-        <v>0.0533491355565764</v>
+        <v>0.07200780166123442</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.0494712063533</v>
+        <v>16.845061</v>
       </c>
       <c r="H10">
-        <v>15.0494712063533</v>
+        <v>50.535183</v>
       </c>
       <c r="I10">
-        <v>0.3069128506154923</v>
+        <v>0.2908678170626081</v>
       </c>
       <c r="J10">
-        <v>0.3069128506154923</v>
+        <v>0.3182312442151755</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.58846838548901</v>
+        <v>1.734280333333333</v>
       </c>
       <c r="N10">
-        <v>1.58846838548901</v>
+        <v>5.202841</v>
       </c>
       <c r="O10">
-        <v>0.1956831768446239</v>
+        <v>0.1935945123301762</v>
       </c>
       <c r="P10">
-        <v>0.1956831768446239</v>
+        <v>0.2187423481983455</v>
       </c>
       <c r="Q10">
-        <v>23.90560922961937</v>
+        <v>29.21405800610034</v>
       </c>
       <c r="R10">
-        <v>23.90560922961937</v>
+        <v>262.926522054903</v>
       </c>
       <c r="S10">
-        <v>0.060057681622879</v>
+        <v>0.05631041319677851</v>
       </c>
       <c r="T10">
-        <v>0.060057681622879</v>
+        <v>0.06961064962970864</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.0494712063533</v>
+        <v>16.845061</v>
       </c>
       <c r="H11">
-        <v>15.0494712063533</v>
+        <v>50.535183</v>
       </c>
       <c r="I11">
-        <v>0.3069128506154923</v>
+        <v>0.2908678170626081</v>
       </c>
       <c r="J11">
-        <v>0.3069128506154923</v>
+        <v>0.3182312442151755</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.00021192209817</v>
+        <v>3.0896925</v>
       </c>
       <c r="N11">
-        <v>3.00021192209817</v>
+        <v>6.179385</v>
       </c>
       <c r="O11">
-        <v>0.369595646653395</v>
+        <v>0.3448966705619311</v>
       </c>
       <c r="P11">
-        <v>0.369595646653395</v>
+        <v>0.2597990569616933</v>
       </c>
       <c r="Q11">
-        <v>45.1516029345743</v>
+        <v>52.0460586337425</v>
       </c>
       <c r="R11">
-        <v>45.1516029345743</v>
+        <v>312.276351802455</v>
       </c>
       <c r="S11">
-        <v>0.1134336534894697</v>
+        <v>0.1003193416785104</v>
       </c>
       <c r="T11">
-        <v>0.1134336534894697</v>
+        <v>0.0826761771428489</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.42942455136514</v>
+        <v>4.767255333333333</v>
       </c>
       <c r="H12">
-        <v>2.42942455136514</v>
+        <v>14.301766</v>
       </c>
       <c r="I12">
-        <v>0.04954470520532085</v>
+        <v>0.08231737196954897</v>
       </c>
       <c r="J12">
-        <v>0.04954470520532085</v>
+        <v>0.09006138928307221</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.461946881438581</v>
+        <v>0.4734346666666667</v>
       </c>
       <c r="N12">
-        <v>0.461946881438581</v>
+        <v>1.420304</v>
       </c>
       <c r="O12">
-        <v>0.05690716549296645</v>
+        <v>0.05284863793465887</v>
       </c>
       <c r="P12">
-        <v>0.05690716549296645</v>
+        <v>0.05971365108322604</v>
       </c>
       <c r="Q12">
-        <v>1.12226509519345</v>
+        <v>2.256983939651555</v>
       </c>
       <c r="R12">
-        <v>1.12226509519345</v>
+        <v>20.312855456864</v>
       </c>
       <c r="S12">
-        <v>0.00281944873841943</v>
+        <v>0.004350360986951331</v>
       </c>
       <c r="T12">
-        <v>0.00281944873841943</v>
+        <v>0.005377894375719968</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.42942455136514</v>
+        <v>4.767255333333333</v>
       </c>
       <c r="H13">
-        <v>2.42942455136514</v>
+        <v>14.301766</v>
       </c>
       <c r="I13">
-        <v>0.04954470520532085</v>
+        <v>0.08231737196954897</v>
       </c>
       <c r="J13">
-        <v>0.04954470520532085</v>
+        <v>0.09006138928307221</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.65589118122037</v>
+        <v>1.866903</v>
       </c>
       <c r="N13">
-        <v>1.65589118122037</v>
+        <v>5.600709</v>
       </c>
       <c r="O13">
-        <v>0.2039889807126669</v>
+        <v>0.2083989358041556</v>
       </c>
       <c r="P13">
-        <v>0.2039889807126669</v>
+        <v>0.2354698593010256</v>
       </c>
       <c r="Q13">
-        <v>4.022862690045789</v>
+        <v>8.900003283565999</v>
       </c>
       <c r="R13">
-        <v>4.022862690045789</v>
+        <v>80.100029552094</v>
       </c>
       <c r="S13">
-        <v>0.01010657391454296</v>
+        <v>0.01715485271664883</v>
       </c>
       <c r="T13">
-        <v>0.01010657391454296</v>
+        <v>0.02120674266293991</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.42942455136514</v>
+        <v>4.767255333333333</v>
       </c>
       <c r="H14">
-        <v>2.42942455136514</v>
+        <v>14.301766</v>
       </c>
       <c r="I14">
-        <v>0.04954470520532085</v>
+        <v>0.08231737196954897</v>
       </c>
       <c r="J14">
-        <v>0.04954470520532085</v>
+        <v>0.09006138928307221</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.41103374181041</v>
+        <v>1.794003</v>
       </c>
       <c r="N14">
-        <v>1.41103374181041</v>
+        <v>5.382009</v>
       </c>
       <c r="O14">
-        <v>0.1738250302963477</v>
+        <v>0.2002612433690784</v>
       </c>
       <c r="P14">
-        <v>0.1738250302963477</v>
+        <v>0.2262750844557097</v>
       </c>
       <c r="Q14">
-        <v>3.42800001515883</v>
+        <v>8.552470369765999</v>
       </c>
       <c r="R14">
-        <v>3.42800001515883</v>
+        <v>76.97223332789399</v>
       </c>
       <c r="S14">
-        <v>0.008612109883338515</v>
+        <v>0.0164849792614968</v>
       </c>
       <c r="T14">
-        <v>0.008612109883338515</v>
+        <v>0.02037864846622571</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.42942455136514</v>
+        <v>4.767255333333333</v>
       </c>
       <c r="H15">
-        <v>2.42942455136514</v>
+        <v>14.301766</v>
       </c>
       <c r="I15">
-        <v>0.04954470520532085</v>
+        <v>0.08231737196954897</v>
       </c>
       <c r="J15">
-        <v>0.04954470520532085</v>
+        <v>0.09006138928307221</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.58846838548901</v>
+        <v>1.734280333333333</v>
       </c>
       <c r="N15">
-        <v>1.58846838548901</v>
+        <v>5.202841</v>
       </c>
       <c r="O15">
-        <v>0.1956831768446239</v>
+        <v>0.1935945123301762</v>
       </c>
       <c r="P15">
-        <v>0.1956831768446239</v>
+        <v>0.2187423481983455</v>
       </c>
       <c r="Q15">
-        <v>3.859064094774346</v>
+        <v>8.267757168578445</v>
       </c>
       <c r="R15">
-        <v>3.859064094774346</v>
+        <v>74.409814517206</v>
       </c>
       <c r="S15">
-        <v>0.009695065310407557</v>
+        <v>0.01593619148274655</v>
       </c>
       <c r="T15">
-        <v>0.009695065310407557</v>
+        <v>0.01970023977378452</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.42942455136514</v>
+        <v>4.767255333333333</v>
       </c>
       <c r="H16">
-        <v>2.42942455136514</v>
+        <v>14.301766</v>
       </c>
       <c r="I16">
-        <v>0.04954470520532085</v>
+        <v>0.08231737196954897</v>
       </c>
       <c r="J16">
-        <v>0.04954470520532085</v>
+        <v>0.09006138928307221</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.00021192209817</v>
+        <v>3.0896925</v>
       </c>
       <c r="N16">
-        <v>3.00021192209817</v>
+        <v>6.179385</v>
       </c>
       <c r="O16">
-        <v>0.369595646653395</v>
+        <v>0.3448966705619311</v>
       </c>
       <c r="P16">
-        <v>0.369595646653395</v>
+        <v>0.2597990569616933</v>
       </c>
       <c r="Q16">
-        <v>7.288788502843691</v>
+        <v>14.729353048985</v>
       </c>
       <c r="R16">
-        <v>7.288788502843691</v>
+        <v>88.37611829391</v>
       </c>
       <c r="S16">
-        <v>0.01831150735861239</v>
+        <v>0.02839098752170547</v>
       </c>
       <c r="T16">
-        <v>0.01831150735861239</v>
+        <v>0.02339786400440211</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.87287020472695</v>
+        <v>2.922963333333333</v>
       </c>
       <c r="H17">
-        <v>2.87287020472695</v>
+        <v>8.768889999999999</v>
       </c>
       <c r="I17">
-        <v>0.05858815714460672</v>
+        <v>0.05047152777426636</v>
       </c>
       <c r="J17">
-        <v>0.05858815714460672</v>
+        <v>0.05521964321542102</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.461946881438581</v>
+        <v>0.4734346666666667</v>
       </c>
       <c r="N17">
-        <v>0.461946881438581</v>
+        <v>1.420304</v>
       </c>
       <c r="O17">
-        <v>0.05690716549296645</v>
+        <v>0.05284863793465887</v>
       </c>
       <c r="P17">
-        <v>0.05690716549296645</v>
+        <v>0.05971365108322604</v>
       </c>
       <c r="Q17">
-        <v>1.327113431851432</v>
+        <v>1.383832171395555</v>
       </c>
       <c r="R17">
-        <v>1.327113431851432</v>
+        <v>12.45448954256</v>
       </c>
       <c r="S17">
-        <v>0.003334085954556059</v>
+        <v>0.002667351497351282</v>
       </c>
       <c r="T17">
-        <v>0.003334085954556059</v>
+        <v>0.003297366507905881</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.87287020472695</v>
+        <v>2.922963333333333</v>
       </c>
       <c r="H18">
-        <v>2.87287020472695</v>
+        <v>8.768889999999999</v>
       </c>
       <c r="I18">
-        <v>0.05858815714460672</v>
+        <v>0.05047152777426636</v>
       </c>
       <c r="J18">
-        <v>0.05858815714460672</v>
+        <v>0.05521964321542102</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.65589118122037</v>
+        <v>1.866903</v>
       </c>
       <c r="N18">
-        <v>1.65589118122037</v>
+        <v>5.600709</v>
       </c>
       <c r="O18">
-        <v>0.2039889807126669</v>
+        <v>0.2083989358041556</v>
       </c>
       <c r="P18">
-        <v>0.2039889807126669</v>
+        <v>0.2354698593010256</v>
       </c>
       <c r="Q18">
-        <v>4.757160436798116</v>
+        <v>5.45688901589</v>
       </c>
       <c r="R18">
-        <v>4.757160436798116</v>
+        <v>49.11200114301</v>
       </c>
       <c r="S18">
-        <v>0.01195133845776187</v>
+        <v>0.01051821267656699</v>
       </c>
       <c r="T18">
-        <v>0.01195133845776187</v>
+        <v>0.01300256161858802</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.87287020472695</v>
+        <v>2.922963333333333</v>
       </c>
       <c r="H19">
-        <v>2.87287020472695</v>
+        <v>8.768889999999999</v>
       </c>
       <c r="I19">
-        <v>0.05858815714460672</v>
+        <v>0.05047152777426636</v>
       </c>
       <c r="J19">
-        <v>0.05858815714460672</v>
+        <v>0.05521964321542102</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.41103374181041</v>
+        <v>1.794003</v>
       </c>
       <c r="N19">
-        <v>1.41103374181041</v>
+        <v>5.382009</v>
       </c>
       <c r="O19">
-        <v>0.1738250302963477</v>
+        <v>0.2002612433690784</v>
       </c>
       <c r="P19">
-        <v>0.1738250302963477</v>
+        <v>0.2262750844557097</v>
       </c>
       <c r="Q19">
-        <v>4.053716794711507</v>
+        <v>5.24380498889</v>
       </c>
       <c r="R19">
-        <v>4.053716794711507</v>
+        <v>47.19424490000999</v>
       </c>
       <c r="S19">
-        <v>0.01018408819066845</v>
+        <v>0.01010749090681155</v>
       </c>
       <c r="T19">
-        <v>0.01018408819066845</v>
+        <v>0.01249482943218355</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.87287020472695</v>
+        <v>2.922963333333333</v>
       </c>
       <c r="H20">
-        <v>2.87287020472695</v>
+        <v>8.768889999999999</v>
       </c>
       <c r="I20">
-        <v>0.05858815714460672</v>
+        <v>0.05047152777426636</v>
       </c>
       <c r="J20">
-        <v>0.05858815714460672</v>
+        <v>0.05521964321542102</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.58846838548901</v>
+        <v>1.734280333333333</v>
       </c>
       <c r="N20">
-        <v>1.58846838548901</v>
+        <v>5.202841</v>
       </c>
       <c r="O20">
-        <v>0.1956831768446239</v>
+        <v>0.1935945123301762</v>
       </c>
       <c r="P20">
-        <v>0.1956831768446239</v>
+        <v>0.2187423481983455</v>
       </c>
       <c r="Q20">
-        <v>4.563463495822099</v>
+        <v>5.069237824054444</v>
       </c>
       <c r="R20">
-        <v>4.563463495822099</v>
+        <v>45.62314041649</v>
       </c>
       <c r="S20">
-        <v>0.01146471671552869</v>
+        <v>0.009771010806018037</v>
       </c>
       <c r="T20">
-        <v>0.01146471671552869</v>
+        <v>0.01207887442361603</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.87287020472695</v>
+        <v>2.922963333333333</v>
       </c>
       <c r="H21">
-        <v>2.87287020472695</v>
+        <v>8.768889999999999</v>
       </c>
       <c r="I21">
-        <v>0.05858815714460672</v>
+        <v>0.05047152777426636</v>
       </c>
       <c r="J21">
-        <v>0.05858815714460672</v>
+        <v>0.05521964321542102</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.00021192209817</v>
+        <v>3.0896925</v>
       </c>
       <c r="N21">
-        <v>3.00021192209817</v>
+        <v>6.179385</v>
       </c>
       <c r="O21">
-        <v>0.369595646653395</v>
+        <v>0.3448966705619311</v>
       </c>
       <c r="P21">
-        <v>0.369595646653395</v>
+        <v>0.2597990569616933</v>
       </c>
       <c r="Q21">
-        <v>8.619219438862405</v>
+        <v>9.031057888774999</v>
       </c>
       <c r="R21">
-        <v>8.619219438862405</v>
+        <v>54.18634733264999</v>
       </c>
       <c r="S21">
-        <v>0.02165392782609164</v>
+        <v>0.0174074618875185</v>
       </c>
       <c r="T21">
-        <v>0.02165392782609164</v>
+        <v>0.01434601123312754</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>14.2761942472891</v>
+        <v>14.9391485</v>
       </c>
       <c r="H22">
-        <v>14.2761942472891</v>
+        <v>29.878297</v>
       </c>
       <c r="I22">
-        <v>0.2911429519547685</v>
+        <v>0.2579579565172923</v>
       </c>
       <c r="J22">
-        <v>0.2911429519547685</v>
+        <v>0.1881502562153687</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.461946881438581</v>
+        <v>0.4734346666666667</v>
       </c>
       <c r="N22">
-        <v>0.461946881438581</v>
+        <v>1.420304</v>
       </c>
       <c r="O22">
-        <v>0.05690716549296645</v>
+        <v>0.05284863793465887</v>
       </c>
       <c r="P22">
-        <v>0.05690716549296645</v>
+        <v>0.05971365108322604</v>
       </c>
       <c r="Q22">
-        <v>6.594843411346609</v>
+        <v>7.072710790381334</v>
       </c>
       <c r="R22">
-        <v>6.594843411346609</v>
+        <v>42.436264742288</v>
       </c>
       <c r="S22">
-        <v>0.01656812014900079</v>
+        <v>0.01363272664634686</v>
       </c>
       <c r="T22">
-        <v>0.01656812014900079</v>
+        <v>0.01123513875086411</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>14.2761942472891</v>
+        <v>14.9391485</v>
       </c>
       <c r="H23">
-        <v>14.2761942472891</v>
+        <v>29.878297</v>
       </c>
       <c r="I23">
-        <v>0.2911429519547685</v>
+        <v>0.2579579565172923</v>
       </c>
       <c r="J23">
-        <v>0.2911429519547685</v>
+        <v>0.1881502562153687</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.65589118122037</v>
+        <v>1.866903</v>
       </c>
       <c r="N23">
-        <v>1.65589118122037</v>
+        <v>5.600709</v>
       </c>
       <c r="O23">
-        <v>0.2039889807126669</v>
+        <v>0.2083989358041556</v>
       </c>
       <c r="P23">
-        <v>0.2039889807126669</v>
+        <v>0.2354698593010256</v>
       </c>
       <c r="Q23">
-        <v>23.639824155475</v>
+        <v>27.8899411520955</v>
       </c>
       <c r="R23">
-        <v>23.639824155475</v>
+        <v>167.339646912573</v>
       </c>
       <c r="S23">
-        <v>0.05938995401093016</v>
+        <v>0.05375816362041834</v>
       </c>
       <c r="T23">
-        <v>0.05938995401093016</v>
+        <v>0.04430371435848478</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>14.2761942472891</v>
+        <v>14.9391485</v>
       </c>
       <c r="H24">
-        <v>14.2761942472891</v>
+        <v>29.878297</v>
       </c>
       <c r="I24">
-        <v>0.2911429519547685</v>
+        <v>0.2579579565172923</v>
       </c>
       <c r="J24">
-        <v>0.2911429519547685</v>
+        <v>0.1881502562153687</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.41103374181041</v>
+        <v>1.794003</v>
       </c>
       <c r="N24">
-        <v>1.41103374181041</v>
+        <v>5.382009</v>
       </c>
       <c r="O24">
-        <v>0.1738250302963477</v>
+        <v>0.2002612433690784</v>
       </c>
       <c r="P24">
-        <v>0.1738250302963477</v>
+        <v>0.2262750844557097</v>
       </c>
       <c r="Q24">
-        <v>20.14419178756459</v>
+        <v>26.8008772264455</v>
       </c>
       <c r="R24">
-        <v>20.14419178756459</v>
+        <v>160.805263358673</v>
       </c>
       <c r="S24">
-        <v>0.05060793244410575</v>
+        <v>0.0516589811090996</v>
       </c>
       <c r="T24">
-        <v>0.05060793244410575</v>
+        <v>0.04257371511549597</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>14.2761942472891</v>
+        <v>14.9391485</v>
       </c>
       <c r="H25">
-        <v>14.2761942472891</v>
+        <v>29.878297</v>
       </c>
       <c r="I25">
-        <v>0.2911429519547685</v>
+        <v>0.2579579565172923</v>
       </c>
       <c r="J25">
-        <v>0.2911429519547685</v>
+        <v>0.1881502562153687</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.58846838548901</v>
+        <v>1.734280333333333</v>
       </c>
       <c r="N25">
-        <v>1.58846838548901</v>
+        <v>5.202841</v>
       </c>
       <c r="O25">
-        <v>0.1956831768446239</v>
+        <v>0.1935945123301762</v>
       </c>
       <c r="P25">
-        <v>0.1956831768446239</v>
+        <v>0.2187423481983455</v>
       </c>
       <c r="Q25">
-        <v>22.67728322691881</v>
+        <v>25.90867144029617</v>
       </c>
       <c r="R25">
-        <v>22.67728322691881</v>
+        <v>155.452028641777</v>
       </c>
       <c r="S25">
-        <v>0.05697177775443078</v>
+        <v>0.04993924479365398</v>
       </c>
       <c r="T25">
-        <v>0.05697177775443078</v>
+        <v>0.0411564288586701</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>14.2761942472891</v>
+        <v>14.9391485</v>
       </c>
       <c r="H26">
-        <v>14.2761942472891</v>
+        <v>29.878297</v>
       </c>
       <c r="I26">
-        <v>0.2911429519547685</v>
+        <v>0.2579579565172923</v>
       </c>
       <c r="J26">
-        <v>0.2911429519547685</v>
+        <v>0.1881502562153687</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.00021192209817</v>
+        <v>3.0896925</v>
       </c>
       <c r="N26">
-        <v>3.00021192209817</v>
+        <v>6.179385</v>
       </c>
       <c r="O26">
-        <v>0.369595646653395</v>
+        <v>0.3448966705619311</v>
       </c>
       <c r="P26">
-        <v>0.369595646653395</v>
+        <v>0.2597990569616933</v>
       </c>
       <c r="Q26">
-        <v>42.83160818290607</v>
+        <v>46.15737507683625</v>
       </c>
       <c r="R26">
-        <v>42.83160818290607</v>
+        <v>184.629500307345</v>
       </c>
       <c r="S26">
-        <v>0.107605167596301</v>
+        <v>0.0889688403477735</v>
       </c>
       <c r="T26">
-        <v>0.107605167596301</v>
+        <v>0.04888125913185375</v>
       </c>
     </row>
   </sheetData>
